--- a/posesiones/1486019.xlsx
+++ b/posesiones/1486019.xlsx
@@ -1892,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>13</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>11</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>20</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>13</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>6</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>42</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>13</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>10</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>7</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>13</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>18</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>14</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R47">
         <v>29</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R54">
         <v>29</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R55">
         <v>20</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R61">
         <v>29</v>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R62">
         <v>17</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R64">
         <v>20</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R66">
         <v>14</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R75">
         <v>14</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5579,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R78">
         <v>15</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R80">
         <v>15</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R82">
         <v>12</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R88">
         <v>23</v>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R89">
         <v>18</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R93">
         <v>12</v>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R94">
         <v>15</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R99">
         <v>20</v>
@@ -6676,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R100">
         <v>13</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R102">
         <v>8</v>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R109">
         <v>39</v>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R110">
         <v>22</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R111">
         <v>22</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7320,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R113">
         <v>10</v>
@@ -7364,10 +7364,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7502,10 +7502,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R118">
         <v>9</v>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7658,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R120">
         <v>17</v>
@@ -7711,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R121">
         <v>10</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7808,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7908,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>27</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R127">
         <v>19</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8111,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R129">
         <v>21</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R137">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8731,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R142">
         <v>38</v>
@@ -8784,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R143">
         <v>15</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8887,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R145">
         <v>18</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R151">
         <v>12</v>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9278,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R153">
         <v>18</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9710,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R162">
         <v>8</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9907,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R166">
         <v>29</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10007,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R168">
         <v>17</v>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R170">
         <v>13</v>
@@ -10160,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R171">
         <v>21</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R175">
         <v>19</v>
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10651,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R181">
         <v>32</v>
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R185">
         <v>12</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R187">
         <v>9</v>
@@ -11007,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R188">
         <v>20</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11342,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R195">
         <v>32</v>
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11580,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R201">
         <v>26</v>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11824,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R205">
         <v>16</v>
@@ -11877,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R206">
         <v>15</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11980,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R208">
         <v>14</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R212">
         <v>13</v>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12277,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R214">
         <v>9</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12374,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R216">
         <v>16</v>
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12615,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R221">
         <v>14</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12715,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R223">
         <v>22</v>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12818,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R225">
         <v>5</v>
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12915,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>25</v>
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13015,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R229">
         <v>9</v>
@@ -13059,10 +13059,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13203,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13291,10 +13291,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q235">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13344,7 +13344,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R236">
         <v>13</v>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13447,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R238">
         <v>16</v>
@@ -13497,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R240">
         <v>5</v>
@@ -13600,7 +13600,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R241">
         <v>22</v>
@@ -13653,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R242">
         <v>17</v>
@@ -13706,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13756,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R244">
         <v>6</v>
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R246">
         <v>11</v>
@@ -13909,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13959,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R248">
         <v>14</v>
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14059,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R250">
         <v>13</v>
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14206,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14256,7 +14256,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R254">
         <v>22</v>
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14356,7 +14356,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R256">
         <v>15</v>
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14459,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R258">
         <v>5</v>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14559,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R260">
         <v>4</v>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14656,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14706,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14756,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R264">
         <v>33</v>
@@ -14809,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R265">
         <v>12</v>
@@ -14859,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R267">
         <v>16</v>
@@ -14959,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R269">
         <v>16</v>
@@ -15062,7 +15062,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15112,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R271">
         <v>8</v>
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15209,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15256,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15303,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15353,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15403,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R277">
         <v>17</v>
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15550,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R280">
         <v>15</v>
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15741,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15788,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15838,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>22</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15988,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R290">
         <v>21</v>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16135,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16185,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R293">
         <v>20</v>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16282,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16376,7 +16376,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16517,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16611,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R302">
         <v>23</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R303">
         <v>0</v>
@@ -16717,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R304">
         <v>3</v>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16817,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R306">
         <v>13</v>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16911,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16961,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17011,7 +17011,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R310">
         <v>25</v>
@@ -17064,7 +17064,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R311">
         <v>13</v>
@@ -17114,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17161,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17211,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17261,7 +17261,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R315">
         <v>18</v>
@@ -17311,7 +17311,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17358,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17405,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17499,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R321">
         <v>10</v>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17652,7 +17652,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R323">
         <v>18</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R325">
         <v>6</v>
@@ -17802,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17852,7 +17852,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R327">
         <v>16</v>
@@ -17905,7 +17905,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R328">
         <v>20</v>
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18008,7 +18008,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R330">
         <v>5</v>
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18199,7 +18199,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18246,7 +18246,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18340,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R338">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18487,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18537,7 +18537,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R341">
         <v>14</v>
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18687,7 +18687,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R344">
         <v>20</v>
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19022,7 +19022,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R351">
         <v>9</v>
@@ -19075,7 +19075,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R352">
         <v>9</v>
@@ -19125,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19175,7 +19175,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R354">
         <v>24</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19278,7 +19278,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R356">
         <v>5</v>
@@ -19328,7 +19328,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19369,10 +19369,10 @@
         <v>1</v>
       </c>
       <c r="P358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19419,7 +19419,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19466,7 +19466,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19507,10 +19507,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19560,7 +19560,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R362">
         <v>11</v>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19754,7 +19754,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R366">
         <v>18</v>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19857,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R368">
         <v>6</v>
@@ -19907,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19954,7 +19954,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20004,7 +20004,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R371">
         <v>18</v>
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20104,7 +20104,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R373">
         <v>18</v>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20251,7 +20251,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20298,7 +20298,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20345,7 +20345,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20395,7 +20395,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R379">
         <v>16</v>
@@ -20445,7 +20445,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20492,7 +20492,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R381">
         <v>24</v>
@@ -20545,7 +20545,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R382">
         <v>15</v>
@@ -20595,7 +20595,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R384">
         <v>16</v>
@@ -20695,7 +20695,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20742,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20789,7 +20789,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20836,7 +20836,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20886,7 +20886,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R389">
         <v>25</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21080,7 +21080,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21127,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21174,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21224,7 +21224,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R396">
         <v>17</v>
@@ -21277,7 +21277,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R397">
         <v>20</v>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21377,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21424,7 +21424,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21471,7 +21471,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21518,7 +21518,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21565,7 +21565,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21612,7 +21612,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21659,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21706,7 +21706,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21756,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21806,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R408">
         <v>8</v>
@@ -21856,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21903,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21947,7 +21947,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21994,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22044,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22091,7 +22091,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22188,7 +22188,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R416">
         <v>38</v>
@@ -22241,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22291,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R418">
         <v>5</v>
@@ -22341,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22388,7 +22388,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22482,7 +22482,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22576,7 +22576,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22626,7 +22626,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R425">
         <v>24</v>
@@ -22679,7 +22679,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R426">
         <v>18</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22779,7 +22779,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R428">
         <v>18</v>
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22882,7 +22882,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R430">
         <v>12</v>
@@ -22935,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R432">
         <v>15</v>
@@ -23038,7 +23038,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R433">
         <v>13</v>
@@ -23088,7 +23088,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23138,7 +23138,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R435">
         <v>17</v>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23423,7 +23423,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R441">
         <v>9</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23520,7 +23520,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23567,7 +23567,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23758,7 +23758,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R448">
         <v>10</v>
@@ -23811,7 +23811,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R449">
         <v>19</v>
@@ -23864,7 +23864,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R450">
         <v>23</v>
@@ -23914,7 +23914,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24014,7 +24014,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R453">
         <v>15</v>
@@ -24064,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24158,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24255,7 +24255,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R458">
         <v>1</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24355,7 +24355,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24405,7 +24405,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R461">
         <v>17</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24508,7 +24508,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R463">
         <v>13</v>
@@ -24558,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24605,7 +24605,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24699,7 +24699,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24749,7 +24749,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R468">
         <v>2</v>
@@ -24799,7 +24799,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24896,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R471">
         <v>6</v>
@@ -24949,7 +24949,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24999,7 +24999,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R473">
         <v>16</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R476">
         <v>7</v>
@@ -25193,7 +25193,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25240,7 +25240,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25334,7 +25334,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25384,7 +25384,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R481">
         <v>0</v>
@@ -25431,7 +25431,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25481,7 +25481,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R483">
         <v>17</v>
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25581,7 +25581,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R485">
         <v>15</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25681,7 +25681,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R487">
         <v>18</v>
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25778,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25872,7 +25872,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25966,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26013,7 +26013,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26063,7 +26063,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R495">
         <v>3</v>
@@ -26113,7 +26113,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26163,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26213,7 +26213,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R498">
         <v>22</v>
@@ -26263,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26313,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26363,7 +26363,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R501">
         <v>3</v>
@@ -26413,7 +26413,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26460,7 +26460,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26557,7 +26557,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R505">
         <v>8</v>
@@ -26610,7 +26610,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R506">
         <v>2</v>
@@ -26654,10 +26654,10 @@
         <v>1</v>
       </c>
       <c r="P507" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q507">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
